--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276817.6505806624</v>
+        <v>-279519.2984831976</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.11693918766176</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.5735819801476</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>42.47944622542272</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>368.8527090291415</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>7.12501169929699</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>86.96580920469184</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>148.3089273128517</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.01748395153031</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>411.830884450382</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151394</v>
+        <v>34.48295390323781</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>191.1891487966055</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>77.35126832331586</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0189251916161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282959</v>
+        <v>30.3450364528297</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.819171215429</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.966441831150577</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>122.6907501522938</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1427,13 +1427,13 @@
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>244.2383528899789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>330.6121914139025</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.197586942688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927379</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679904251</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.6911863448263</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187851</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881297</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.56423921895528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238239</v>
+        <v>106.1291803787684</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,16 +1850,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881301</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>129.0096827405953</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>36.22494343870298</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>120.8326485140797</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>208.7327685259491</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>57.02356321678141</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>205.9682521390025</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>57.82449082152314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>73.78417491007308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>32.37373183919267</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>79.0585636675447</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.278598673301</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31367585848648</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>20.92847288552827</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899565</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.06198119183939</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1763464053452</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312956</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312956</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148104</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832531</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.8121315905899</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644764</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426227</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426227</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426227</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>672.242026426227</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>672.242026426227</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W2" t="n">
-        <v>672.242026426227</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097418</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097418</v>
+        <v>560.6825636487952</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6039361998094</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="C3" t="n">
-        <v>256.1509069186824</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="D3" t="n">
-        <v>256.1509069186824</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>73.44514521379156</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>73.44514521379156</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198775</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198775</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198775</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198775</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198775</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198775</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198775</v>
+        <v>219.9797031869066</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829038</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829038</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829038</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829038</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>709.3965921992917</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>725.3468614886972</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>748.7753949309534</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829038</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.18993515947</v>
+        <v>1642.528350064221</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.18993515947</v>
+        <v>1642.528350064221</v>
       </c>
       <c r="D5" t="n">
-        <v>838.9242365527191</v>
+        <v>1642.528350064221</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.789775223591</v>
+        <v>2029.128190128342</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.789775223591</v>
+        <v>2029.128190128342</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.789775223591</v>
+        <v>2029.128190128342</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.789775223591</v>
+        <v>2029.128190128342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.0496057289574</v>
+        <v>513.2911934535864</v>
       </c>
       <c r="C6" t="n">
-        <v>444.5965764478304</v>
+        <v>338.8381641724594</v>
       </c>
       <c r="D6" t="n">
-        <v>444.5965764478304</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E6" t="n">
-        <v>285.3591214423749</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1646.394047250753</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1418.292457384017</v>
       </c>
       <c r="V6" t="n">
-        <v>1249.35379968276</v>
+        <v>1183.140349152275</v>
       </c>
       <c r="W6" t="n">
-        <v>995.1164429545584</v>
+        <v>928.9029924240731</v>
       </c>
       <c r="X6" t="n">
-        <v>787.2649427490255</v>
+        <v>721.0514922185403</v>
       </c>
       <c r="Y6" t="n">
-        <v>787.2649427490255</v>
+        <v>513.2911934535864</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>73.84575541765827</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>298.0536847439799</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>298.0536847439799</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V7" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>242.7819383455652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.6006974458904</v>
+        <v>906.1489679920685</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6381805054787</v>
+        <v>906.1489679920685</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6381805054787</v>
+        <v>906.1489679920685</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6381805054787</v>
+        <v>906.1489679920685</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>495.1630632024609</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>79.17227082833762</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>79.17227082833762</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J8" t="n">
         <v>156.8280559420293</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002236</v>
+        <v>376.1555054002233</v>
       </c>
       <c r="L8" t="n">
-        <v>685.152362570793</v>
+        <v>685.1523625707921</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937549</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733707</v>
+        <v>1446.817915733705</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659508</v>
+        <v>1798.139187659506</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284333</v>
+        <v>2063.48276428433</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228516</v>
+        <v>2214.571993228511</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970531</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179435</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="T8" t="n">
-        <v>1892.712468859631</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="U8" t="n">
-        <v>1639.108524755938</v>
+        <v>1963.446268866833</v>
       </c>
       <c r="V8" t="n">
-        <v>1639.108524755938</v>
+        <v>1632.383381523262</v>
       </c>
       <c r="W8" t="n">
-        <v>1286.339869485824</v>
+        <v>1279.614726253148</v>
       </c>
       <c r="X8" t="n">
-        <v>1286.339869485824</v>
+        <v>906.1489679920685</v>
       </c>
       <c r="Y8" t="n">
-        <v>896.2005375100122</v>
+        <v>906.1489679920685</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.4165516710618</v>
+        <v>675.5630051546584</v>
       </c>
       <c r="C9" t="n">
-        <v>527.4165516710618</v>
+        <v>501.1099758735314</v>
       </c>
       <c r="D9" t="n">
-        <v>378.4821420098106</v>
+        <v>501.1099758735314</v>
       </c>
       <c r="E9" t="n">
-        <v>378.4821420098106</v>
+        <v>422.9773816075558</v>
       </c>
       <c r="F9" t="n">
         <v>276.4428236344407</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618006</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113504</v>
+        <v>92.51967467113478</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154161</v>
+        <v>253.0195209154155</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572541</v>
+        <v>515.1539122572531</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449734</v>
+        <v>840.4092510449721</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738685</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074213</v>
+        <v>1485.06330007421</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566943</v>
+        <v>1703.60253656694</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.77103225764</v>
+        <v>1799.771032257637</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285085</v>
+        <v>1769.119480285081</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285085</v>
+        <v>1769.119480285081</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838237</v>
+        <v>1769.119480285081</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893359</v>
+        <v>1541.019307340204</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661617</v>
+        <v>1305.867199108461</v>
       </c>
       <c r="W9" t="n">
-        <v>1111.243687661617</v>
+        <v>1051.629842380259</v>
       </c>
       <c r="X9" t="n">
-        <v>903.3921874560838</v>
+        <v>843.7783421747265</v>
       </c>
       <c r="Y9" t="n">
-        <v>695.6318886911299</v>
+        <v>843.7783421747265</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.2771871873175</v>
+        <v>53.39801621006768</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941062</v>
+        <v>53.39801621006768</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="K10" t="n">
-        <v>95.7447083801674</v>
+        <v>95.74470838016711</v>
       </c>
       <c r="L10" t="n">
-        <v>191.429549681036</v>
+        <v>191.4295496810355</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422657</v>
+        <v>295.574081842265</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091244</v>
+        <v>405.0998157091234</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712725</v>
+        <v>485.9514692712712</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139734</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139734</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139734</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="S10" t="n">
-        <v>337.2072378462001</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="T10" t="n">
-        <v>337.2072378462001</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="U10" t="n">
-        <v>337.2072378462001</v>
+        <v>536.0720553139719</v>
       </c>
       <c r="V10" t="n">
-        <v>337.2072378462001</v>
+        <v>281.387567108085</v>
       </c>
       <c r="W10" t="n">
-        <v>213.2771871873175</v>
+        <v>281.387567108085</v>
       </c>
       <c r="X10" t="n">
-        <v>213.2771871873175</v>
+        <v>53.39801621006768</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.2771871873175</v>
+        <v>53.39801621006768</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754457</v>
+        <v>1894.446607880607</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1525.484090940195</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1167.218392333444</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>781.4301397351996</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>370.4442349455921</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455921</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.4060796706892</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656944</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926739</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048267</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.821395088692</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2720.052739818579</v>
+        <v>2654.512206205808</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818579</v>
+        <v>2281.046447944728</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818579</v>
+        <v>2281.046447944728</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046651</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626164</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599366</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861146</v>
+        <v>1933.239912720356</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193669</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.9017361535895</v>
+        <v>856.3974185289014</v>
       </c>
       <c r="C13" t="n">
-        <v>607.9017361535895</v>
+        <v>687.4612356009945</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535895</v>
+        <v>537.3445961886588</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711964</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344805</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925592</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925592</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>2056.743466925592</v>
+        <v>2030.604194657125</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.651773875043</v>
+        <v>1741.512501606576</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.967285669156</v>
+        <v>1486.828013400689</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.550115632195</v>
+        <v>1486.828013400689</v>
       </c>
       <c r="X13" t="n">
-        <v>995.5605647341781</v>
+        <v>1258.838462502671</v>
       </c>
       <c r="Y13" t="n">
-        <v>774.7679855906481</v>
+        <v>1038.045883359141</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803936</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803936</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069451</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200838</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327683</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741516</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704555</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806538</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663008</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998425</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998425</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327636</v>
+        <v>1053.171308869726</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048567</v>
+        <v>884.2351259418189</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048567</v>
+        <v>734.1184865294831</v>
       </c>
       <c r="E19" t="n">
-        <v>594.8179559048567</v>
+        <v>586.20539294709</v>
       </c>
       <c r="F19" t="n">
-        <v>447.9280084069463</v>
+        <v>439.3154454491797</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>272.1193461640596</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>130.4075150062577</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630033</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307819</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028749</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>672.6908673905391</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>524.777773808146</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057243</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="D25" t="n">
         <v>637.9025067654818</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580267</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2238.914344045922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1949.839117390119</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1695.154629184232</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1177.747908249254</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>956.9553291057243</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356196</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356196</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244368</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171303</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892234</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892234</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E31" t="n">
-        <v>564.5188827892234</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F31" t="n">
-        <v>417.628935291313</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G31" t="n">
-        <v>250.4328360061927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.10353054737</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171303</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C34" t="n">
-        <v>733.4550657171303</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>583.3384263047946</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E34" t="n">
-        <v>435.4253327224014</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.10353054737</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,22 +6935,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755821</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6280888252697</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038341</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851674</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572604</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449247</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E40" t="n">
-        <v>377.6556127449247</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F40" t="n">
-        <v>230.7656652470143</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G40" t="n">
-        <v>230.7656652470143</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154071</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>114.9565346495156</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495156</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135314</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473698</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194628</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071272</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1376146247341</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>301.2476671268237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.51390558015603</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>18.6287773035105</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.63439323924929</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>112.9912328950777</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.013786490211357e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6825818796726</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>146.0084629450596</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>36.51445555167354</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>45.04089287986254</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.58839950885159</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>77.7902298106419</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.59190980143094</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.4371981882858</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>194.3131525023049</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51053793615081</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>113.0473161837386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>66.36248435538654</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>84.24553961896784</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>85.98103698773741</v>
+        <v>57.22910392194233</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>119.3662399606956</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992877</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>100.4621571004295</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194304</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1124465.229734055</v>
+        <v>1124465.229734054</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.663699106</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991064</v>
-      </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028984</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="J2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861771</v>
+        <v>392510.2442861774</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264256</v>
+        <v>12262.85603264141</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674492</v>
+        <v>395943.9567674511</v>
       </c>
       <c r="F3" t="n">
         <v>189308.2687704292</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.708981578005478e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487765</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949808</v>
+        <v>3074.447349949507</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931116</v>
+        <v>103409.2608931121</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202371</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607419</v>
+        <v>170817.8827607423</v>
       </c>
       <c r="E4" t="n">
-        <v>15331.22144723326</v>
+        <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068798</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687974</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687968</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404167</v>
+        <v>86153.75444404158</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738561</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-618988.604067483</v>
+        <v>-618988.6040674826</v>
       </c>
       <c r="C6" t="n">
-        <v>-344021.652531841</v>
+        <v>-344021.6525318414</v>
       </c>
       <c r="D6" t="n">
-        <v>38656.17046168025</v>
+        <v>38656.17046168086</v>
       </c>
       <c r="E6" t="n">
-        <v>-221691.6966791695</v>
+        <v>-221912.8279931462</v>
       </c>
       <c r="F6" t="n">
-        <v>-3187.463717463732</v>
+        <v>-3222.201642899367</v>
       </c>
       <c r="G6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275299</v>
       </c>
       <c r="H6" t="n">
-        <v>186120.8050529649</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="I6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275299</v>
       </c>
       <c r="J6" t="n">
-        <v>137055.8603244208</v>
+        <v>137021.1223989851</v>
       </c>
       <c r="K6" t="n">
-        <v>94860.84818808777</v>
+        <v>94826.11026265216</v>
       </c>
       <c r="L6" t="n">
-        <v>183046.3577030156</v>
+        <v>183011.6197775804</v>
       </c>
       <c r="M6" t="n">
-        <v>82711.54415985385</v>
+        <v>82676.8062344178</v>
       </c>
       <c r="N6" t="n">
-        <v>136281.2309209417</v>
+        <v>136246.4929955062</v>
       </c>
       <c r="O6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275299</v>
       </c>
       <c r="P6" t="n">
-        <v>186120.8050529653</v>
+        <v>186086.0671275298</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.506172289419654e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.506172289419654e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573211</v>
+        <v>863.6234498573202</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426327</v>
+        <v>554.2625532426316</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490083</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247791</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91278531963701</v>
+        <v>9.9127853196361</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576286</v>
+        <v>338.6177873576304</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267236</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1475965164696</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063755</v>
+        <v>414.9582707063774</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1475965164696</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063755</v>
+        <v>414.9582707063774</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1475965164696</v>
+        <v>12.14759651646841</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063755</v>
+        <v>414.9582707063774</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059415</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>247.9252960539634</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27433,7 +27433,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121487</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>55.07149847525331</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>58.36231112531698</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377769</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773846</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159719</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>13.07766104312026</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>320.6272467708379</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>36.29946757904885</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>105.7974091060719</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>84.49165983657358</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>154.4340171594015</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27825,7 +27825,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>1.354513060649708</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42.14432038827627</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>16.70866397656943</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>80.29381213208508</v>
       </c>
       <c r="F9" t="n">
-        <v>44.05028720176777</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433989</v>
+        <v>35.56536036433995</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>139.6490311870618</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332422</v>
+        <v>16.89051046332433</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099037</v>
+        <v>21.09786070099048</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
@@ -28068,13 +28068,13 @@
         <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8322481842972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.958966984413564e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.545004124636762e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4.138200893066823e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.599209234042157e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753047</v>
+        <v>3.471853064753044</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940215</v>
+        <v>35.55611519940211</v>
       </c>
       <c r="I8" t="n">
-        <v>133.848615278892</v>
+        <v>133.8486152788918</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545842</v>
+        <v>294.6691890545839</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855808</v>
+        <v>441.6327292855803</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160169</v>
+        <v>547.8844525160164</v>
       </c>
       <c r="M8" t="n">
-        <v>609.627019456319</v>
+        <v>609.6270194563183</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765486</v>
+        <v>619.4914219765479</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639104</v>
+        <v>584.9681830639098</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278195</v>
+        <v>499.256810527819</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463509</v>
+        <v>374.9210726463505</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787938</v>
+        <v>218.0887900787936</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306015</v>
+        <v>79.11485171306006</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095647</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802437</v>
+        <v>0.2777482451802434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.857605156296878</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.94055506213037</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566011</v>
+        <v>63.95701963566005</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148732</v>
+        <v>175.502950314873</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867641</v>
+        <v>299.9624957867638</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564782</v>
+        <v>403.3365932564778</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722399</v>
+        <v>470.6747801722395</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668801</v>
+        <v>483.1321410668796</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510387</v>
+        <v>441.9715215510382</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423401</v>
+        <v>354.7211109423397</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230894</v>
+        <v>237.1216687230892</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911087</v>
+        <v>34.50420103911084</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442244</v>
+        <v>7.487452362442236</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458474</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037792</v>
+        <v>1.55735376203779</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066329</v>
+        <v>13.84629072066327</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291834</v>
+        <v>46.83387495291829</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.9361916258451</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306005</v>
+        <v>231.5360311306003</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801604</v>
+        <v>244.1222810801601</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762016</v>
+        <v>238.3175988762013</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833055</v>
+        <v>220.1248753833052</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.3548586377341</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284555</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580834</v>
+        <v>70.02428824580826</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387679</v>
+        <v>27.14042874387676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343292</v>
+        <v>6.654147892343285</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842512</v>
+        <v>0.08494656883842502</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598378</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747744</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>250.1980451314327</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>225.1169475382824</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383442</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605173</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>616.9033572954385</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213414</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745962</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>483.3274636075166</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278979</v>
+        <v>113.6232845278976</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406002</v>
+        <v>221.5428782405997</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460297</v>
+        <v>312.1180375460291</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290463</v>
+        <v>379.2807862290456</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799577</v>
+        <v>390.078358379957</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422236</v>
+        <v>354.869971642223</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725499</v>
+        <v>268.0238147725494</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719014</v>
+        <v>152.615382771901</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661654</v>
+        <v>2.503252264661427</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820648</v>
+        <v>48.66532364820631</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124051</v>
+        <v>162.1210568124048</v>
       </c>
       <c r="L9" t="n">
-        <v>264.782213476604</v>
+        <v>264.7822134766036</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502216</v>
+        <v>328.5407462502212</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835468</v>
+        <v>351.7904289835462</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065942</v>
+        <v>299.3752771065938</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280098</v>
+        <v>220.7467035280095</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370679</v>
+        <v>97.13989463706764</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530987</v>
+        <v>51.92293345530967</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936221</v>
+        <v>96.65135484936198</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325554</v>
+        <v>105.1964971325551</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109684</v>
+        <v>110.6320544109681</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146268</v>
+        <v>81.66833693146242</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858672</v>
+        <v>50.62685458858653</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854788</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949002</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094143</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>82.52070309383795</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655336</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>485.5616452121051</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>263.6798975070112</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525779</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.402257299906</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>340.7312191630721</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
